--- a/DOM_Banner/output/dept_banner/Ricklie Julian_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Ricklie Julian_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,400 +360,201 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Matthew J. Groysman, Sun Yi, Jared R. Robbins, Charles C. Hsu, Ricklie Julian, Julie E. Bauman, Audrey Baker, Steven J. Wang, Shethal Bearelly</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3201396271</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>The impact of socioeconomic and geographic factors on access to transoral robotic/endoscopic surgery for early stage oropharyngeal malignancy</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5062640366", "https://openalex.org/A5042015420", "https://openalex.org/A5000177941", "https://openalex.org/A5005668744", "https://openalex.org/A5070649610", "https://openalex.org/A5073246708", "https://openalex.org/A5038802732", "https://openalex.org/A5064093389", "https://openalex.org/A5014179731"), au_display_name = c("Matthew J. Groysman", "Sun Yi", "Jared R. Robbins", "Charles C. Hsu", "Ricklie Julian", "Julie E. Bauman", "Audrey Baker", "Steven J. Wang", 
-"Shethal Bearelly"), au_orcid = c(NA, NA, "https://orcid.org/0000-0003-1724-5242", NA, NA, "https://orcid.org/0000-0002-1398-6636", NA, "https://orcid.org/0000-0001-8862-5555", NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("University of Arizona College of Medicine, Department of Otolaryngology and Head and Neck Surgery, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America.", "Enloe Medical Center, Department of Radiation Oncology, 1531 Esplanade, Chico, CA 95926, United States of America", 
-"University of Arizona College of Medicine, Department of Radiation Oncology, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America", "University of Arizona College of Medicine, Department of Radiation Oncology, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America", "University of Arizona College of Medicine, Department of Internal Medicine, Division of Hematology/Oncology, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America", "University of Arizona College of Medicine, Department of Internal Medicine, Division of Hematology/Oncology, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America", 
-"University of Arizona College of Medicine, Department of Otolaryngology and Head and Neck Surgery, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America", "University of Arizona College of Medicine, Department of Otolaryngology and Head and Neck Surgery, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America", "University of Arizona College of Medicine, Department of Otolaryngology and Head and Neck Surgery, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America"), institution_id = c("https://openalex.org/I138006243", 
-NA, "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", NA, "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", 
-NA, "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", NA, "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", NA, "education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-NA, "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>To evaluate the role of social and geographic factors on the likelihood of receiving transoral robotic surgery (TORS) or non-robotic transoral endoscopic surgery treatment in early stage oropharyngeal squamous cell carcinoma (OPSCC).The National Cancer Database was queried to form a cohort of patients with T1-T2 N0-N1 M0 OPSCC (AJCC v.7) who underwent treatment from 2010 to 2016. Demographics, tumor characteristics, treatment type, social, and geographic factors were all collected. Univariate analysis and multivariate logistic regression were then performed.Among 9267 identified patients, 1774 (19.1%) received transoral robotic surgery (TORS), 1191 (12.9%) received transoral endoscopic surgery, and 6302 (68%) received radiation therapy. We found that lower cancer stage, lower comorbidity burden and HPV- positive status predicted a statistically significant increased likelihood of receiving surgery. Patients who reside in suburban or small urban areas (&gt;1 million population), were low-to- middle income, or rely on Medicaid were less likely to receive surgery. Patients that reside in Medicaid-expansion states were more likely to receive TORS (p &gt; .0001). Patients that reside in states that expanded Medicaid January 2014 and after were more likely to receive non-robotic transoral endoscopic surgery (p &gt; .0001).Poorer baseline health, lower socioeconomic status and residence in small urban areas may act as barriers to accessing minimally invasive transoral surgery while residence in a Medicaid-expansion state may improve access. Barriers to accessing robotic surgery may be greater than accessing non-robotic surgery.</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>American Journal of Otolaryngology</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>American Journal of Otolaryngology</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S204216521</t>
+          <t>https://doi.org/10.1016/j.amjoto.2021.103243</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0196-0709</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/34583290</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.amjoto.2021.103243</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>103243</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>103243</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W3201396271</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W3201396271", doi = "https://doi.org/10.1016/j.amjoto.2021.103243", mag = "3201396271", pmid = "https://pubmed.ncbi.nlm.nih.gov/34583290")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.amjoto.2021.103243</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W193969319", "https://openalex.org/W2003515660", "https://openalex.org/W2004079062", "https://openalex.org/W2296585338", "https://openalex.org/W2552596405", "https://openalex.org/W2556680470", "https://openalex.org/W2593603277", "https://openalex.org/W2662946175", "https://openalex.org/W2776211811", "https://openalex.org/W2800362764", "https://openalex.org/W2803152935", "https://openalex.org/W2890906167", "https://openalex.org/W2941464595", "https://openalex.org/W2996334508", 
-"https://openalex.org/W2997089336", "https://openalex.org/W3012363714")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2001661267", "https://openalex.org/W2409536811", "https://openalex.org/W2586280594", "https://openalex.org/W3195952590", "https://openalex.org/W2239921212", "https://openalex.org/W3201396271", "https://openalex.org/W3124532470", "https://openalex.org/W4245765501", "https://openalex.org/W2047967234", "https://openalex.org/W2439875401")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Christine H. Chung, Dimitrios Colevas, Douglas Adkins, Jong Chul Park, Cristina P. Rodriguez, Michael K. Gibson, Ammar Sukari, Barbara Burtness, Faye M. Johnson, Ricklie Julian, Nabil F. Saba, Lara Dunn, Tanguy Y. Seiwert, Francis P. Worden, Rami J. Haddad, Nashat Gabrail, Julie E. Bauman, Laura Agensky, Apollina Goel, Reena Lynam, Steven Margossian, Raymond J. Moniz, Steve Quayle, Cynthia Rajan, Kenneth J. Pienta, Matteo Levisetti, Sara I. Pai</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308400022</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>681 A phase 1 study of CUE-101, a novel HPV16 E7-pHLA-IL2-Fc fusion protein, as monotherapy and in combination with pembrolizumab in patients with recurrent/metastatic HPV16+ head and neck cancer</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5016127308", "https://openalex.org/A5002590653", "https://openalex.org/A5038502827", "https://openalex.org/A5020503634", "https://openalex.org/A5034980758", "https://openalex.org/A5005651831", "https://openalex.org/A5008487747", "https://openalex.org/A5023000705", "https://openalex.org/A5024203346", "https://openalex.org/A5070649610", "https://openalex.org/A5036672833", "https://openalex.org/A5052154004", "https://openalex.org/A5008467612", "https://openalex.org/A5022036818", 
-"https://openalex.org/A5011915692", "https://openalex.org/A5082283453", "https://openalex.org/A5073246708", "https://openalex.org/A5026549061", "https://openalex.org/A5002846184", "https://openalex.org/A5002197659", "https://openalex.org/A5066186106", "https://openalex.org/A5013926462", "https://openalex.org/A5060908251", "https://openalex.org/A5090227380", "https://openalex.org/A5087520734", "https://openalex.org/A5038680778", "https://openalex.org/A5063313488"), au_display_name = c("Christine H. Chung", 
-"Dimitrios Colevas", "Douglas Adkins", "Jong Chul Park", "Cristina P. Rodriguez", "Michael K. Gibson", "Ammar Sukari", "Barbara Burtness", "Faye M. Johnson", "Ricklie Julian", "Nabil F. Saba", "Lara Dunn", "Tanguy Y. Seiwert", "Francis P. Worden", "Rami J. Haddad", "Nashat Gabrail", "Julie E. Bauman", "Laura Agensky", "Apollina Goel", "Reena Lynam", "Steven Margossian", "Raymond J. Moniz", "Steve Quayle", "Cynthia Rajan", "Kenneth J. Pienta", "Matteo Levisetti", "Sara I. Pai"), au_orcid = c("https://orcid.org/0000-0001-5199-4306", 
-NA, NA, "https://orcid.org/0000-0003-0083-5991", "https://orcid.org/0000-0002-9202-4813", "https://orcid.org/0000-0002-1500-9281", "https://orcid.org/0000-0003-1968-0459", "https://orcid.org/0000-0003-4660-1859", "https://orcid.org/0000-0002-2862-4160", NA, "https://orcid.org/0000-0003-4972-1477", NA, "https://orcid.org/0000-0001-7919-8272", "https://orcid.org/0000-0002-6632-4951", "https://orcid.org/0000-0003-3192-273X", NA, "https://orcid.org/0000-0002-1398-6636", NA, NA, NA, NA, NA, NA, NA, NA, 
-NA, "https://orcid.org/0000-0002-6341-9971"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("H. Lee Moffitt Cancer Center, Tampa, FL, USA", "Stanford University School of Medicine, Stanford, CA, USA", "Washington University School of Medicine, St Louis, MO, USA", 
-"Massachusetts General Hospital, Boston, MA, USA", "University of Washington, Seattle, WA, USA", "Vanderbilt University Medical Center, Nashville, TN, USA", "Karmanos Cancer Center, Detroit, MI, USA", "Yale School of Medicine, New Haven, CT, USA", "The University of Texas MD Anderson, Houston, TX, USA", "University of Arizona Cancer Center, Tucson, AZ, USA", "Emory University, Atlanta, GA, USA", "Memorial Sloan Kettering Cancer Center, New York, NY, USA", "Johns Hopkins University, Baltimore, MD, USA", 
-"University of Michigan, Ann Arbor, MI, USA", "", "Gabrail Cancer and Research Center, Canton, OH, USA", "George Washington University Cancer Center, Tucson, DC, USA", "", "", "", "", "", "", "", "Johns Hopkins University, Baltimore, MD, USA", "", "Massachusetts General Hospital, Boston, MA, USA"), institution_id = c("https://openalex.org/I3019308854", "https://openalex.org/I97018004", "https://openalex.org/I204465549", "https://openalex.org/I4210087915", "https://openalex.org/I201448701", "https://openalex.org/I901861585", 
-"https://openalex.org/I4210090317", "https://openalex.org/I32971472", "https://openalex.org/I1343551460", "https://openalex.org/I138006243", "https://openalex.org/I150468666", "https://openalex.org/I1334819555", "https://openalex.org/I145311948", "https://openalex.org/I27837315", NA, "https://openalex.org/I4210100169", "https://openalex.org/I193531525", NA, NA, NA, NA, NA, NA, NA, "https://openalex.org/I145311948", NA, "https://openalex.org/I4210087915"), institution_display_name = c("Moffitt Cancer Center", 
-"Stanford University", "Washington University in St. Louis", "Massachusetts General Hospital", "University of Washington", "Vanderbilt University Medical Center", "The Barbara Ann Karmanos Cancer Institute", "Yale University", "The University of Texas MD Anderson Cancer Center", "University of Arizona", "Emory University", "Memorial Sloan Kettering Cancer Center", "Johns Hopkins University", "University of Michigan–Ann Arbor", NA, "Gabrail Cancer Center", "George Washington University", NA, NA, 
-NA, NA, NA, NA, NA, "Johns Hopkins University", NA, "Massachusetts General Hospital"), institution_ror = c("https://ror.org/01xf75524", "https://ror.org/00f54p054", "https://ror.org/01yc7t268", "https://ror.org/002pd6e78", "https://ror.org/00cvxb145", "https://ror.org/05dq2gs74", "https://ror.org/00ee40h97", "https://ror.org/03v76x132", "https://ror.org/04twxam07", "https://ror.org/03m2x1q45", "https://ror.org/03czfpz43", "https://ror.org/02yrq0923", "https://ror.org/00za53h95", "https://ror.org/00jmfr291", 
-NA, "https://ror.org/015hpqr35", "https://ror.org/00y4zzh67", NA, NA, NA, NA, NA, NA, NA, "https://ror.org/00za53h95", NA, "https://ror.org/002pd6e78"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", NA, "US", "US", NA, NA, NA, NA, NA, NA, NA, "US", NA, "US"), institution_type = c("healthcare", "education", "education", "healthcare", "education", "healthcare", "facility", "education", "healthcare", "education", "education", "healthcare", 
-"education", "education", NA, "other", "education", NA, NA, NA, NA, NA, NA, NA, "education", NA, "healthcare"), institution_lineage = c("https://openalex.org/I3019308854", "https://openalex.org/I97018004", "https://openalex.org/I204465549", "https://openalex.org/I4210087915, https://openalex.org/I48633490", "https://openalex.org/I201448701", "https://openalex.org/I4210162197, https://openalex.org/I901861585", "https://openalex.org/I2800590384, https://openalex.org/I4210090317", "https://openalex.org/I32971472", 
-"https://openalex.org/I1343551460, https://openalex.org/I16452829", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I150468666", "https://openalex.org/I1334819555", "https://openalex.org/I145311948", "https://openalex.org/I27837315", NA, "https://openalex.org/I4210100169", "https://openalex.org/I193531525", NA, NA, NA, NA, NA, NA, NA, "https://openalex.org/I145311948", NA, "https://openalex.org/I4210087915, https://openalex.org/I48633490"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;Background&lt;/h3&gt; Immuno-STATs&lt;sup&gt;TM&lt;/sup&gt; are modular fusion proteins designed for the selective delivery of IL-2 to tumor-antigen specific CD8+ T cells. CUE-101, the first Immuno-STAT in clinical trials, is composed of a human leukocyte antigen (HLA) complex, HLA-A*0201, a peptide epitope derived from the HPV16 E7 protein, and 4 molecules of reduced affinity human interleukin-2 (IL-2) designed to bind, expand, and activate HPV16-specific CD8+ T cells for the treatment of HPV16+ cancers. &lt;h3&gt;Methods&lt;/h3&gt; CUE-101-01 is a first-in-human study in patients with HLA-A*0201 genotype and HPV16+ recurrent/metastatic head and neck squamous cell carcinoma (R/M HNSCC). R/M HNSCC patients refractory to ≥ 1 platinum- or checkpoint-inhibitor-based systemic therapies received CUE-101 monotherapy. Patients with previously untreated PD-L1+ (CPS ≥ 1) R/M HNSCC received CUE-101 and pembrolizumab 200 mg. Therapy was administered every 3 weeks until disease progression or unacceptable toxicity. Escalating doses of CUE-101 monotherapy or in combination with pembrolizumab were evaluated, followed by expanded enrollment at the recommended phase 2 dose (RP2D). Objectives included evaluation of safety, pharmacokinetics (PK), pharmacodynamics (PD), and antitumor activity. &lt;h3&gt;Results&lt;/h3&gt; As of July 25, 2022, 62 patients have received CUE-101 ranging from 0.06 to 8 mg/kg/dose. The most common adverse events included fatigue (46%), anemia (24%), chills (24%), and hyponatremia (22%). In the monotherapy dose escalation portion, a MTD was not identified, and 4 mg/kg was chosen as the RP2D based on PK, PD, and preliminary clinical activity. CUE-101 dose escalation from 1 to 4 mg/kg in combination with pembrolizumab 200 mg has been completed with no DLTs observed and expansion of CUE-101 at 4 mg/kg with pembrolizumab is ongoing. PK data demonstrate dose-dependent increases in drug exposure that are sustained upon repeat dosing. PD data demonstrate selected expansion of HPV-16 E7&lt;sub&gt;11-20&lt;/sub&gt;-specific CD8+ T cells in the peripheral blood. Of the 19 evaluable patients treated with CUE-101 monotherapy at the RP2D of 4 mg/kg, 1 patient experienced partial response (PR) and 7 stable disease (SD) for ≥ 12 weeks. Of the 10 evaluable patients treated with CUE-101 plus pembrolizumab, 3 patients experienced PR (2 confirmed) and 2 patients SD for ≥ 12 weeks. &lt;h3&gt;Conclusions&lt;/h3&gt; CUE-101 has a manageable safety profile and demonstrates activity alone and in combination with pembrolizumab. &lt;h3&gt;Acknowledgements&lt;/h3&gt; The authors would like to thank all the patients who are participating in this study. The study is sponsored by Cue Biopharma, in collaboration with Merck Sharp &amp;amp; Dohme LLC, a subsidiary of Merck &amp;amp; Co., Inc., Rahway, NJ, USA and support from LG Chem, Ltd., Seoul, South Korea. &lt;h3&gt;Trial Registration&lt;/h3&gt; ClinicalTrials. gov NCT03978689 &lt;h3&gt;Ethics Approval&lt;/h3&gt; This study was approved by Ethics and Institutional Review Boards (IRBs) at all study sites. IRB reference numbers: Advarra Pro00037736 (Moffitt Cancer Center), IRB 52744 (Stanford University School of Medicine), HRPO# 201905108 (Washington University School of Medicine), DF/HCC IRB# 19-374 (Massachusetts General Hospital), WIRB STUDY00008948 (University of Washington, Seattle), IRB 191714 (Vanderbilt University Medical Center Vanderbilt-Ingram Cancer Center), 2019-087 Karmanos Cancer Institute, WIRB 2000026098 (Yale Cancer Center), 2019-0578 (The University of Texas MD Anderson Cancer Center), WIRB 1908869642 (University of Arizona Cancer Center), WIRB IRB00112341(Winship Cancer Institute/Emory University), IRB 20-073 (Memorial Sloan Kettering Cancer Center), IRB00255391 (Johns Hopkins University School of Medicine), IRB(IRBMED) HUM00165746 (University of Michigan Comprehensive Cancer Center), IRB0001113 (US Oncology Inc./Affiliated Oncologists, LLC), WCG IRB00000533 (Gabrail Cancer Center), IRB000001113 (George Washington University Cancer Center).</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>Regular and Young Investigator Award Abstracts</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Regular and Young Investigator Award Abstracts</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4363604233</t>
+          <t>https://doi.org/10.1136/jitc-2022-sitc2022.0681</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -763,132 +564,42 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1136/jitc-2022-sitc2022.0681</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://jitc.bmj.com/content/jitc/10/Suppl_2/A711.full.pdf</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://jitc.bmj.com/content/jitc/10/Suppl_2/A711.full.pdf</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4308400022</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4308400022", doi = "https://doi.org/10.1136/jitc-2022-sitc2022.0681")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1136/jitc-2022-sitc2022.0681</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4221021748", "https://openalex.org/W3215044659", "https://openalex.org/W3154280247", "https://openalex.org/W4361014976", "https://openalex.org/W3002787057", "https://openalex.org/W4225695268", "https://openalex.org/W2969782175", "https://openalex.org/W3029766637", "https://openalex.org/W2806504080", "https://openalex.org/W4377238167")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Ricklie Julian_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Ricklie Julian_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Department of Otolaryngology and Head and Neck Surgery, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America.; Enloe Medical Center, Department of Radiation Oncology, 1531 Esplanade, Chico, CA 95926, United States of America; University of Arizona College of Medicine, Department of Radiation Oncology, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America; University of Arizona College of Medicine, Department of Radiation Oncology, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America; University of Arizona College of Medicine, Department of Internal Medicine, Division of Hematology/Oncology, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America; University of Arizona College of Medicine, Department of Internal Medicine, Division of Hematology/Oncology, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America; University of Arizona College of Medicine, Department of Otolaryngology and Head and Neck Surgery, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America; University of Arizona College of Medicine, Department of Otolaryngology and Head and Neck Surgery, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America; University of Arizona College of Medicine, Department of Otolaryngology and Head and Neck Surgery, 1501 N Campbell Ave, Tucson, AZ 85724, United States of America</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3201396271</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The impact of socioeconomic and geographic factors on access to transoral robotic/endoscopic surgery for early stage oropharyngeal malignancy</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>American Journal of Otolaryngology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjoto.2021.103243</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34583290</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjoto.2021.103243</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>H. Lee Moffitt Cancer Center, Tampa, FL, USA; Stanford University School of Medicine, Stanford, CA, USA; Washington University School of Medicine, St Louis, MO, USA; Massachusetts General Hospital, Boston, MA, USA; University of Washington, Seattle, WA, USA; Vanderbilt University Medical Center, Nashville, TN, USA; Karmanos Cancer Center, Detroit, MI, USA; Yale School of Medicine, New Haven, CT, USA; The University of Texas MD Anderson, Houston, TX, USA; University of Arizona Cancer Center, Tucson, AZ, USA; Emory University, Atlanta, GA, USA; Memorial Sloan Kettering Cancer Center, New York, NY, USA; Johns Hopkins University, Baltimore, MD, USA; University of Michigan, Ann Arbor, MI, USA; ; Gabrail Cancer and Research Center, Canton, OH, USA; George Washington University Cancer Center, Tucson, DC, USA; ; ; ; ; ; ; ; Johns Hopkins University, Baltimore, MD, USA; ; Massachusetts General Hospital, Boston, MA, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308400022</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>681 A phase 1 study of CUE-101, a novel HPV16 E7-pHLA-IL2-Fc fusion protein, as monotherapy and in combination with pembrolizumab in patients with recurrent/metastatic HPV16+ head and neck cancer</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Regular and Young Investigator Award Abstracts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/jitc-2022-sitc2022.0681</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/jitc-2022-sitc2022.0681</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
